--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1489.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1489.xlsx
@@ -354,7 +354,7 @@
         <v>2.098807429442428</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.867028705171563</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1489.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1489.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.357563316834535</v>
+        <v>1.542273640632629</v>
       </c>
       <c r="B1">
-        <v>2.098807429442428</v>
+        <v>4.366642951965332</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.287420749664307</v>
       </c>
       <c r="D1">
-        <v>1.867028705171563</v>
+        <v>1.375802874565125</v>
       </c>
       <c r="E1">
-        <v>0.755673121370756</v>
+        <v>0.9475429058074951</v>
       </c>
     </row>
   </sheetData>
